--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="~SK34 PENSION REPORT           " sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="#SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
-    <sheet name="$SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
+    <sheet name="$SK34 PENSION REPORT           " sheetId="3" r:id="rId4"/>
+    <sheet name="#SK34 PENSION REPORT           " sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Pension EE</t>
   </si>
@@ -96,9 +96,6 @@
     <t>ISSUES FOUND</t>
   </si>
   <si>
-    <t>PAYROLL</t>
-  </si>
-  <si>
     <t>FORENAME</t>
   </si>
   <si>
@@ -111,7 +108,7 @@
     <t>ER</t>
   </si>
   <si>
-    <t>1</t>
+    <t>AVC</t>
   </si>
   <si>
     <t>Dromahane</t>
@@ -120,51 +117,57 @@
     <t>Recess</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Ballybofey</t>
   </si>
   <si>
     <t>Kilcoole</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Caherdaniel</t>
   </si>
   <si>
     <t>Carndonagh</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Sheeaun</t>
   </si>
   <si>
     <t>D Knocknagoshel</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>Ballinode</t>
   </si>
   <si>
     <t>O'Portnablagh</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>Rossaveel</t>
   </si>
   <si>
     <t>Newtownforbes</t>
   </si>
   <si>
+    <t>2_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>Mandatory columns not found</t>
+  </si>
+  <si>
+    <t>No unique ID reference column (REFNO/PPSNO/Payroll) was found</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
+  </si>
+  <si>
     <t>NEG_ROWS</t>
   </si>
   <si>
@@ -174,22 +177,7 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>6093.46</t>
-  </si>
-  <si>
-    <t>1_Errors_found</t>
-  </si>
-  <si>
-    <t>Error Type</t>
-  </si>
-  <si>
-    <t>Error Description</t>
-  </si>
-  <si>
-    <t>schemeNotNull</t>
-  </si>
-  <si>
-    <t>The Scheme ID is missing</t>
+    <t>6593.46</t>
   </si>
 </sst>
 </file>
@@ -964,104 +952,104 @@
       <c r="C2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" t="s">
-        <v>29</v>
+      <c r="D2">
+        <v>263.08</v>
       </c>
       <c r="E2">
-        <v>263.08</v>
+        <v>420.93</v>
       </c>
       <c r="F2">
-        <v>420.93</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="5"/>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+      <c r="D3">
+        <v>117.23</v>
       </c>
       <c r="E3">
-        <v>117.23</v>
+        <v>234.45</v>
       </c>
       <c r="F3">
-        <v>234.45</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D4">
+        <v>372.79</v>
       </c>
       <c r="E4">
-        <v>372.79</v>
+        <v>596.47</v>
       </c>
       <c r="F4">
-        <v>596.47</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>500.0</v>
       </c>
       <c r="E5">
+        <v>729.73</v>
+      </c>
+      <c r="F5">
         <v>500.0</v>
-      </c>
-      <c r="F5">
-        <v>729.73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>210.54</v>
       </c>
       <c r="E6">
-        <v>210.54</v>
+        <v>336.87</v>
       </c>
       <c r="F6">
-        <v>336.87</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="D7">
+        <v>1751.04</v>
       </c>
       <c r="E7">
-        <v>1751.04</v>
+        <v>560.33</v>
       </c>
       <c r="F7">
-        <v>560.33</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1072,7 +1060,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:B9"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
@@ -1081,39 +1072,33 @@
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2">
-        <v>3214.68</v>
-      </c>
-      <c r="B2">
-        <v>2878.78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
+      <c r="A2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15">
-      <c r="A9" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1124,35 +1109,54 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" topLeftCell="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2">
+        <v>3214.68</v>
+      </c>
+      <c r="B2">
+        <v>2878.78</v>
+      </c>
+      <c r="C2">
+        <v>500.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15">
+      <c r="A9" t="s">
         <v>49</v>
-      </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2" ht="12.75">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="12.75">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
+++ b/RegressionTests/NeuralNetClassifier_Unit_Test_5/transformed_secondzip/aptrans_anon.603520Irish_Life_Pension_Report_July_2020.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
   <si>
     <t>Pension EE</t>
   </si>
@@ -233,7 +233,7 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>1161520</t>
+    <t>1178489</t>
   </si>
   <si>
     <t>101001</t>
@@ -242,43 +242,40 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>01/05/2021</t>
-  </si>
-  <si>
-    <t>8,000.00</t>
-  </si>
-  <si>
-    <t>ILIM Test 2</t>
-  </si>
-  <si>
-    <t>1158565</t>
-  </si>
-  <si>
-    <t>15/04/2021</t>
-  </si>
-  <si>
-    <t>7,433.97</t>
-  </si>
-  <si>
-    <t>01/04/2021</t>
-  </si>
-  <si>
-    <t>ILIM April 2021</t>
-  </si>
-  <si>
-    <t>1155233</t>
-  </si>
-  <si>
-    <t>15/03/2021</t>
-  </si>
-  <si>
-    <t>29/03/2021</t>
-  </si>
-  <si>
-    <t>4,282.75</t>
-  </si>
-  <si>
-    <t>ILIM R. O'Brien TVIN</t>
+    <t>18/08/2021</t>
+  </si>
+  <si>
+    <t>7,517.33</t>
+  </si>
+  <si>
+    <t>01/08/2021</t>
+  </si>
+  <si>
+    <t>ILIM August 2021</t>
+  </si>
+  <si>
+    <t>1173971</t>
+  </si>
+  <si>
+    <t>16/07/2021</t>
+  </si>
+  <si>
+    <t>1,533.32</t>
+  </si>
+  <si>
+    <t>01/06/2021</t>
+  </si>
+  <si>
+    <t>ILIM Julne 2021</t>
+  </si>
+  <si>
+    <t>1173522</t>
+  </si>
+  <si>
+    <t>5,984.01</t>
+  </si>
+  <si>
+    <t>ILIM June 2021</t>
   </si>
   <si>
     <t>Annually</t>
@@ -441,14 +438,6 @@
       </bottom>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -461,6 +450,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -488,15 +485,18 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B3" t="s">
@@ -1179,7 +1179,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -1199,7 +1199,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B5" t="s">
@@ -1219,7 +1219,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B6" t="s">
@@ -1239,7 +1239,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="30">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
@@ -1322,31 +1322,31 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1373,10 +1373,10 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
@@ -1384,7 +1384,7 @@
         <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>67</v>
@@ -1393,19 +1393,19 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
@@ -1413,7 +1413,7 @@
         <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
@@ -1422,106 +1422,106 @@
         <v>68</v>
       </c>
       <c r="E15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
         <v>80</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15">
       <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>83</v>
-      </c>
-      <c r="C16" t="s">
-        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>68</v>
       </c>
       <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
         <v>85</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" t="s">
         <v>87</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15">
       <c r="A17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" t="s">
         <v>68</v>
       </c>
       <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="F17" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" t="s">
         <v>91</v>
-      </c>
-      <c r="H17" t="s">
-        <v>86</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15">
       <c r="A18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>68</v>
       </c>
       <c r="E18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I18" t="s">
         <v>95</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15">
@@ -1529,28 +1529,28 @@
         <v>65</v>
       </c>
       <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" t="s">
         <v>97</v>
-      </c>
-      <c r="C19" t="s">
-        <v>98</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>100</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>101</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15">
@@ -1558,28 +1558,28 @@
         <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
+        <v>104</v>
+      </c>
+      <c r="F20" t="s">
         <v>105</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" t="s">
         <v>106</v>
       </c>
-      <c r="G20" t="s">
-        <v>101</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>107</v>
-      </c>
-      <c r="I20" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15">
@@ -1587,28 +1587,28 @@
         <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
         <v>68</v>
       </c>
       <c r="E21" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>101</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>111</v>
-      </c>
-      <c r="I21" t="s">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
